--- a/PMS需求、BUG清单.xlsx
+++ b/PMS需求、BUG清单.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="62">
   <si>
     <t>日期</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -248,6 +248,22 @@
   </si>
   <si>
     <t>毋雷</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>需求</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>工作流</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>建立工作流：库管员登记设备发放时，选择领取人，然后在领取人的账号中建立登记信息，并标记该设备为未登记完成状态，此时该设备不能进行其他登记动作。领取人登记使用地点后，该登记提示消失，并且可以进行该设备的下次登记。库管员会全程显示该数据的登记状态，领取人未登记时，设备信息、履历信息中可以显示当前为领用状态，但是没有使用地点。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>王凡</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -338,7 +354,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -380,6 +396,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="31" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -690,15 +709,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H23"/>
+  <dimension ref="A1:H26"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G23" sqref="G23"/>
+    <sheetView tabSelected="1" topLeftCell="A10" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F26" sqref="F26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.625" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="13.5" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="15.625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="15.125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="76.5" style="8" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="7.125" bestFit="1" customWidth="1"/>
@@ -1223,6 +1242,23 @@
       </c>
       <c r="E23" s="11" t="s">
         <v>57</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" ht="67.5" x14ac:dyDescent="0.15">
+      <c r="A26" s="14">
+        <v>43087</v>
+      </c>
+      <c r="B26" t="s">
+        <v>58</v>
+      </c>
+      <c r="C26" s="8" t="s">
+        <v>59</v>
+      </c>
+      <c r="D26" s="12" t="s">
+        <v>60</v>
+      </c>
+      <c r="E26" s="12" t="s">
+        <v>61</v>
       </c>
     </row>
   </sheetData>
